--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harih\OneDrive\Documents\UiPath\Testing\InvoiceTransactionsTesting\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E2B047-E896-4AE7-9408-47062440B531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9245FEB0-F0DA-4379-B573-1E1930F9CA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="304">
   <si>
     <t>Name</t>
   </si>
@@ -934,6 +934,9 @@
   </si>
   <si>
     <t>Entered Transaction is incomplete</t>
+  </si>
+  <si>
+    <t>TimeOut_ValidationFailureDisplayed</t>
   </si>
 </sst>
 </file>
@@ -1334,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1079"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2716,7 +2719,17 @@
     </row>
     <row r="185" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="186" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="187" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="187" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A187" t="s">
+        <v>303</v>
+      </c>
+      <c r="B187">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="188" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="189" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="190" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harih\OneDrive\Documents\UiPath\Testing\InvoiceTransactionsTesting\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9245FEB0-F0DA-4379-B573-1E1930F9CA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8249571E-1A21-4DD7-9C94-EBF8839F6E0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="305">
   <si>
     <t>Name</t>
   </si>
@@ -937,6 +937,9 @@
   </si>
   <si>
     <t>TimeOut_ValidationFailureDisplayed</t>
+  </si>
+  <si>
+    <t>Invoice Transactions Process - User Input Form</t>
   </si>
 </sst>
 </file>
@@ -1337,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1079"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1393,7 +1396,7 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
